--- a/Ver3/ONTAP to ONTAP Work Flows.xlsx
+++ b/Ver3/ONTAP to ONTAP Work Flows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ntapadmin/Desktop/Ansible/Ansible/Ver3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3879CBAD-BF6B-A443-B01D-950A900FFCE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E12B925-90C0-6F40-B492-025279DF8EC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16840" xr2:uid="{DD921BFC-CF52-7E42-A009-3AB7C1E1826E}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16840" activeTab="1" xr2:uid="{DD921BFC-CF52-7E42-A009-3AB7C1E1826E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <t>Mount NFS volumes to datastore on all ESXi hosts</t>
   </si>
   <si>
-    <t>Power of all VMs</t>
+    <t>Power off all VMs</t>
   </si>
   <si>
     <t>Verify datastores already unmount</t>
@@ -594,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71363B55-C784-C94D-8376-E29523258CE0}">
   <dimension ref="B3:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1729B7CE-D7E3-344A-B54C-FFF56D62A72E}">
   <dimension ref="B3:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
